--- a/biology/Zoologie/Atlides_halljasoni/Atlides_halljasoni.xlsx
+++ b/biology/Zoologie/Atlides_halljasoni/Atlides_halljasoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlides halljasoni est une espèce de papillons de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Atlides.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atlides halljasoni a été décrit par Zsolt Bálint (d) et Janusz Wojtusiak (d) en 2006[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides halljasoni a été décrit par Zsolt Bálint (d) et Janusz Wojtusiak (d) en 2006.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atlides halljasoni se nomme Jason Hall's Hairstreak en anglais[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides halljasoni se nomme Jason Hall's Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlides halljasoni est un petit papillon avec une longue et fine queue à chaque aile postérieure. Le dessus est de couleur bleu turquoise bordé de gris foncé avec aux ailes antérieures près du milieu du bord costal une tache double marron. Sur le revers l'abdomen est orange et les ailes gris beige veiné de marron noir avec dans la partie basale des taches rouge triangulaires.
 </t>
@@ -604,13 +622,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside en Équateur[1].
-Biotope
-Il a été trouvé à une altitude de 1 700 m.
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en Équateur.
 </t>
         </is>
       </c>
@@ -636,10 +652,86 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été trouvé à une altitude de 1 700 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Atlides_halljasoni</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlides_halljasoni</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Atlides_halljasoni</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlides_halljasoni</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom spécifique, halljasoni, lui a été donné en l'honneur de Jason Hall, entomologiste américain spécialiste des Riodinidae.
 </t>
